--- a/config/pipesar2s/timing_table_1.xlsx
+++ b/config/pipesar2s/timing_table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\myjupyter\SAR_ADC\config\pipesar2s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5040967-A178-44A9-B128-5FDEB7216376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D98BA3-D2F9-414F-B4EC-B8C27960797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>CB6</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,7 +441,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -491,20 +495,56 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/config/pipesar2s/timing_table_1.xlsx
+++ b/config/pipesar2s/timing_table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\myjupyter\SAR_ADC\config\pipesar2s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D98BA3-D2F9-414F-B4EC-B8C27960797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C1D30-0802-4126-8213-8153B2F6DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Frame1</t>
   </si>
   <si>
@@ -68,6 +65,10 @@
   </si>
   <si>
     <t>EMPTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +442,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -451,100 +452,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
